--- a/Data/Actionable-Outcomes Table.v5_GM_3152021.xlsx
+++ b/Data/Actionable-Outcomes Table.v5_GM_3152021.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jieqi/Box/Nelson Chen/Collaborative Projects/Gayatry Mohapatra/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jieqi/Box/Nelson Chen/Collaborative Projects/Gayatry Mohapatra/SurvivalCurves/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC345E-663E-8942-86FB-16720F6293EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86AEA6-8BD2-A541-ADCA-83D92704B6E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="940" windowWidth="33260" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="2140" windowWidth="24700" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="240">
   <si>
     <t>DNA Lib ID</t>
   </si>
@@ -579,15 +588,6 @@
     <t>Left:2016 Right 1/17/2007</t>
   </si>
   <si>
-    <t>PFS (days)</t>
-  </si>
-  <si>
-    <t>OS (days)</t>
-  </si>
-  <si>
-    <t>Prim vs. met</t>
-  </si>
-  <si>
     <t>9/1/2018</t>
   </si>
   <si>
@@ -732,7 +732,28 @@
     <t>Left Frontal Sinus SCC</t>
   </si>
   <si>
-    <t>Variants                  (1 = Y; 0 = N)</t>
+    <t>Difference of dates</t>
+  </si>
+  <si>
+    <t>2/2/2017</t>
+  </si>
+  <si>
+    <t>12/1/2012</t>
+  </si>
+  <si>
+    <t>Cencored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variants                  </t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Prim_vs_met</t>
   </si>
 </sst>
 </file>
@@ -811,7 +832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -834,11 +855,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -939,6 +971,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,12 +1295,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:K223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1180" topLeftCell="A105" activePane="bottomLeft"/>
+      <pane ySplit="1180" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,9 +1312,10 @@
     <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" style="3"/>
     <col min="9" max="9" width="59.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,16 +1323,16 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>182</v>
@@ -1301,40 +1343,55 @@
       <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9">
+        <v>576</v>
+      </c>
       <c r="E2" s="9">
         <v>578</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10">
-        <v>42768</v>
+      <c r="G2" s="37" t="s">
+        <v>233</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="J2" s="36">
+        <f>H2-G2</f>
+        <v>576</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -1349,21 +1406,28 @@
         <v>4</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H3" s="10">
         <v>42849</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="J3">
+        <f>H3-G3</f>
+        <v>1150</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
@@ -1377,20 +1441,27 @@
       <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10">
-        <v>41244</v>
+      <c r="G4" s="37" t="s">
+        <v>234</v>
       </c>
       <c r="H4" s="10">
         <v>42776</v>
       </c>
       <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="0">H4-G4</f>
+        <v>1532</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -1411,13 +1482,20 @@
         <v>42584</v>
       </c>
       <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1440,13 +1518,20 @@
       <c r="I6" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1112</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1464,18 +1549,25 @@
         <v>42422</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1498,13 +1590,20 @@
       <c r="I8" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
@@ -1525,13 +1624,20 @@
         <v>42968</v>
       </c>
       <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -1554,13 +1660,20 @@
       <c r="I10" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -1568,7 +1681,9 @@
       <c r="D11" s="9">
         <v>746</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <v>747</v>
+      </c>
       <c r="F11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1581,13 +1696,20 @@
       <c r="I11" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
@@ -1595,7 +1717,9 @@
       <c r="D12" s="9">
         <v>1488</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <v>1901</v>
+      </c>
       <c r="F12" s="9" t="s">
         <v>2</v>
       </c>
@@ -1606,15 +1730,22 @@
         <v>43997</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1901</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -1622,7 +1753,9 @@
       <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1635,13 +1768,20 @@
       <c r="I13" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -1664,18 +1804,27 @@
       <c r="I14" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>262</v>
+      </c>
       <c r="E15" s="9">
         <v>262</v>
       </c>
@@ -1689,15 +1838,22 @@
         <v>43968</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C16" s="18">
         <v>1</v>
@@ -1718,13 +1874,20 @@
         <v>43831</v>
       </c>
       <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -1732,7 +1895,9 @@
       <c r="D17" s="9">
         <v>282</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>283</v>
+      </c>
       <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
@@ -1745,18 +1910,27 @@
       <c r="I17" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>112</v>
+      </c>
       <c r="E18" s="9">
         <v>121</v>
       </c>
@@ -1770,15 +1944,22 @@
         <v>43970</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -1786,7 +1967,9 @@
       <c r="D19" s="9">
         <v>5</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <v>5</v>
+      </c>
       <c r="F19" s="9" t="s">
         <v>11</v>
       </c>
@@ -1799,13 +1982,20 @@
       <c r="I19" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -1813,7 +2003,9 @@
       <c r="D20" s="9">
         <v>458</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <v>2878</v>
+      </c>
       <c r="F20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1824,13 +2016,20 @@
         <v>44062</v>
       </c>
       <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2878</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1838,7 +2037,9 @@
       <c r="D21" s="9">
         <v>8</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <v>8</v>
+      </c>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
@@ -1851,13 +2052,20 @@
       <c r="I21" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -1878,15 +2086,22 @@
         <v>42984</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -1907,13 +2122,20 @@
         <v>43564</v>
       </c>
       <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -1934,13 +2156,20 @@
         <v>43511</v>
       </c>
       <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1472</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -1955,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H25" s="10">
         <v>41887</v>
@@ -1963,18 +2192,27 @@
       <c r="I25" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9">
+        <v>446</v>
+      </c>
       <c r="E26" s="9">
         <v>446</v>
       </c>
@@ -1988,20 +2226,29 @@
         <v>42462</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9">
+        <v>192</v>
+      </c>
       <c r="E27" s="9">
         <v>192</v>
       </c>
@@ -2015,15 +2262,22 @@
         <v>42582</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
@@ -2044,20 +2298,29 @@
         <v>42494</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9">
+        <v>413</v>
+      </c>
       <c r="E29" s="9">
         <v>413</v>
       </c>
@@ -2071,15 +2334,22 @@
         <v>42124</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -2100,13 +2370,20 @@
         <v>43238</v>
       </c>
       <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1586</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -2129,13 +2406,20 @@
       <c r="I31" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -2156,13 +2440,20 @@
         <v>43265</v>
       </c>
       <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>894</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -2183,13 +2474,20 @@
         <v>42265</v>
       </c>
       <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -2197,7 +2495,9 @@
       <c r="D34" s="13">
         <v>1460</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="13">
+        <v>1520</v>
+      </c>
       <c r="F34" s="9" t="s">
         <v>11</v>
       </c>
@@ -2208,13 +2508,20 @@
         <v>42712</v>
       </c>
       <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -2235,13 +2542,20 @@
         <v>42783</v>
       </c>
       <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -2262,13 +2576,20 @@
         <v>42490</v>
       </c>
       <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -2289,13 +2610,20 @@
         <v>42331</v>
       </c>
       <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -2318,13 +2646,20 @@
       <c r="I38" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C39" s="8">
         <v>1</v>
@@ -2345,13 +2680,20 @@
         <v>43395</v>
       </c>
       <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C40" s="8">
         <v>1</v>
@@ -2372,13 +2714,20 @@
         <v>42696</v>
       </c>
       <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
@@ -2401,13 +2750,20 @@
       <c r="I41" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>992</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C42" s="8">
         <v>1</v>
@@ -2430,13 +2786,20 @@
       <c r="I42" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>634</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
@@ -2459,13 +2822,20 @@
       <c r="I43" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>783</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
@@ -2473,7 +2843,9 @@
       <c r="D44" s="9">
         <v>1415</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <v>1416</v>
+      </c>
       <c r="F44" s="9" t="s">
         <v>11</v>
       </c>
@@ -2486,18 +2858,27 @@
       <c r="I44" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>1416</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
       </c>
-      <c r="D45" s="9"/>
+      <c r="D45" s="9">
+        <v>821</v>
+      </c>
       <c r="E45" s="9">
         <v>821</v>
       </c>
@@ -2511,15 +2892,22 @@
         <v>42747</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C46" s="8">
         <v>1</v>
@@ -2542,13 +2930,20 @@
       <c r="I46" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>40286</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -2571,8 +2966,15 @@
       <c r="I47" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
@@ -2598,8 +3000,15 @@
         <v>42468</v>
       </c>
       <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>40464</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>52</v>
       </c>
@@ -2612,7 +3021,9 @@
       <c r="D49" s="9">
         <v>16</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <v>16</v>
+      </c>
       <c r="F49" s="9" t="s">
         <v>2</v>
       </c>
@@ -2625,13 +3036,20 @@
       <c r="I49" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C50" s="8">
         <v>1</v>
@@ -2652,13 +3070,20 @@
         <v>43532</v>
       </c>
       <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1821</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C51" s="8">
         <v>1</v>
@@ -2679,13 +3104,20 @@
         <v>43473</v>
       </c>
       <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>1146</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C52" s="8">
         <v>0</v>
@@ -2693,7 +3125,9 @@
       <c r="D52" s="9">
         <v>78</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="9">
+        <v>78</v>
+      </c>
       <c r="F52" s="9" t="s">
         <v>2</v>
       </c>
@@ -2704,20 +3138,29 @@
         <v>42853</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C53" s="8">
         <v>0</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="9">
+        <v>219</v>
+      </c>
       <c r="E53" s="9">
         <v>219</v>
       </c>
@@ -2731,15 +3174,22 @@
         <v>42720</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C54" s="8">
         <v>0</v>
@@ -2760,13 +3210,20 @@
         <v>41795</v>
       </c>
       <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>919</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C55" s="8">
         <v>0</v>
@@ -2774,7 +3231,9 @@
       <c r="D55" s="9">
         <v>54</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="9">
+        <v>54</v>
+      </c>
       <c r="F55" s="9" t="s">
         <v>11</v>
       </c>
@@ -2785,15 +3244,22 @@
         <v>41534</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C56" s="8">
         <v>1</v>
@@ -2814,18 +3280,27 @@
         <v>42680</v>
       </c>
       <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C57" s="8">
         <v>0</v>
       </c>
-      <c r="D57" s="9"/>
+      <c r="D57" s="9">
+        <v>648</v>
+      </c>
       <c r="E57" s="9">
         <v>648</v>
       </c>
@@ -2839,15 +3314,22 @@
         <v>42973</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>649</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C58" s="8">
         <v>1</v>
@@ -2868,13 +3350,20 @@
         <v>42822</v>
       </c>
       <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>662</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C59" s="8">
         <v>0</v>
@@ -2882,7 +3371,9 @@
       <c r="D59" s="9">
         <v>13</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <v>13</v>
+      </c>
       <c r="F59" s="9" t="s">
         <v>11</v>
       </c>
@@ -2893,15 +3384,22 @@
         <v>42030</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C60" s="8">
         <v>1</v>
@@ -2909,7 +3407,9 @@
       <c r="D60" s="9">
         <v>10</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="9">
+        <v>10</v>
+      </c>
       <c r="F60" s="9" t="s">
         <v>11</v>
       </c>
@@ -2920,10 +3420,17 @@
         <v>41890</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
@@ -2936,7 +3443,9 @@
       <c r="D61" s="9">
         <v>127</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9">
+        <v>127</v>
+      </c>
       <c r="F61" s="9" t="s">
         <v>11</v>
       </c>
@@ -2947,10 +3456,17 @@
         <v>42741</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>82</v>
       </c>
@@ -2963,7 +3479,9 @@
       <c r="D62" s="9">
         <v>15</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="9">
+        <v>16</v>
+      </c>
       <c r="F62" s="9" t="s">
         <v>11</v>
       </c>
@@ -2974,10 +3492,17 @@
         <v>42432</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>83</v>
       </c>
@@ -2990,7 +3515,9 @@
       <c r="D63" s="9">
         <v>287</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9">
+        <v>287</v>
+      </c>
       <c r="F63" s="9" t="s">
         <v>11</v>
       </c>
@@ -3001,10 +3528,17 @@
         <v>42466</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>84</v>
       </c>
@@ -3017,7 +3551,9 @@
       <c r="D64" s="9">
         <v>13</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9">
+        <v>13</v>
+      </c>
       <c r="F64" s="9" t="s">
         <v>11</v>
       </c>
@@ -3030,8 +3566,15 @@
       <c r="I64" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>85</v>
       </c>
@@ -3059,8 +3602,15 @@
       <c r="I65" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>637</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>86</v>
       </c>
@@ -3070,7 +3620,9 @@
       <c r="C66" s="8">
         <v>0</v>
       </c>
-      <c r="D66" s="9"/>
+      <c r="D66" s="9">
+        <v>59</v>
+      </c>
       <c r="E66" s="9">
         <v>59</v>
       </c>
@@ -3086,18 +3638,27 @@
       <c r="I66" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C67" s="8">
         <v>1</v>
       </c>
-      <c r="D67" s="9"/>
+      <c r="D67" s="9">
+        <v>146</v>
+      </c>
       <c r="E67" s="9">
         <v>146</v>
       </c>
@@ -3111,18 +3672,27 @@
         <v>42418</v>
       </c>
       <c r="I67" s="12"/>
-    </row>
-    <row r="68" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C68" s="8">
         <v>0</v>
       </c>
-      <c r="D68" s="9"/>
+      <c r="D68" s="9">
+        <v>2</v>
+      </c>
       <c r="E68" s="9">
         <v>2</v>
       </c>
@@ -3136,18 +3706,27 @@
         <v>41487</v>
       </c>
       <c r="I68" s="12"/>
-    </row>
-    <row r="69" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f t="shared" ref="J68:J118" si="1">H68-G68</f>
+        <v>3</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C69" s="8">
         <v>0</v>
       </c>
-      <c r="D69" s="9"/>
+      <c r="D69" s="9">
+        <v>108</v>
+      </c>
       <c r="E69" s="9">
         <v>108</v>
       </c>
@@ -3163,13 +3742,20 @@
       <c r="I69" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C70" s="8">
         <v>0</v>
@@ -3192,18 +3778,27 @@
       <c r="I70" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C71" s="8">
         <v>0</v>
       </c>
-      <c r="D71" s="9"/>
+      <c r="D71" s="9">
+        <v>67</v>
+      </c>
       <c r="E71" s="9">
         <v>68</v>
       </c>
@@ -3217,18 +3812,27 @@
         <v>43533</v>
       </c>
       <c r="I71" s="12"/>
-    </row>
-    <row r="72" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C72" s="8">
         <v>0</v>
       </c>
-      <c r="D72" s="9"/>
+      <c r="D72" s="9">
+        <v>397</v>
+      </c>
       <c r="E72" s="9">
         <v>397</v>
       </c>
@@ -3244,13 +3848,20 @@
       <c r="I72" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C73" s="8">
         <v>0</v>
@@ -3273,18 +3884,27 @@
       <c r="I73" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>2818</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C74" s="8">
         <v>0</v>
       </c>
-      <c r="D74" s="9"/>
+      <c r="D74" s="9">
+        <v>111</v>
+      </c>
       <c r="E74" s="9">
         <v>111</v>
       </c>
@@ -3300,18 +3920,27 @@
       <c r="I74" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C75" s="8">
         <v>0</v>
       </c>
-      <c r="D75" s="9"/>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
       <c r="E75" s="9">
         <v>1</v>
       </c>
@@ -3327,13 +3956,20 @@
       <c r="I75" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C76" s="8">
         <v>0</v>
@@ -3356,13 +3992,20 @@
       <c r="I76" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>5679</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C77" s="8">
         <v>0</v>
@@ -3385,18 +4028,27 @@
       <c r="I77" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C78" s="8">
         <v>1</v>
       </c>
-      <c r="D78" s="9"/>
+      <c r="D78" s="9">
+        <v>102</v>
+      </c>
       <c r="E78" s="9">
         <v>132</v>
       </c>
@@ -3412,18 +4064,27 @@
       <c r="I78" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C79" s="8">
         <v>0</v>
       </c>
-      <c r="D79" s="9"/>
+      <c r="D79" s="9">
+        <v>44</v>
+      </c>
       <c r="E79" s="9">
         <v>44</v>
       </c>
@@ -3439,18 +4100,27 @@
       <c r="I79" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C80" s="8">
         <v>0</v>
       </c>
-      <c r="D80" s="9"/>
+      <c r="D80" s="9">
+        <v>20</v>
+      </c>
       <c r="E80" s="9">
         <v>20</v>
       </c>
@@ -3466,18 +4136,27 @@
       <c r="I80" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C81" s="8">
         <v>0</v>
       </c>
-      <c r="D81" s="9"/>
+      <c r="D81" s="9">
+        <v>16</v>
+      </c>
       <c r="E81" s="9">
         <v>16</v>
       </c>
@@ -3493,18 +4172,27 @@
       <c r="I81" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C82" s="8">
         <v>1</v>
       </c>
-      <c r="D82" s="9"/>
+      <c r="D82" s="9">
+        <v>70</v>
+      </c>
       <c r="E82" s="9">
         <v>80</v>
       </c>
@@ -3520,18 +4208,27 @@
       <c r="I82" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C83" s="8">
         <v>0</v>
       </c>
-      <c r="D83" s="9"/>
+      <c r="D83" s="9">
+        <v>124</v>
+      </c>
       <c r="E83" s="9">
         <v>124</v>
       </c>
@@ -3545,13 +4242,20 @@
         <v>42248</v>
       </c>
       <c r="I83" s="12"/>
-    </row>
-    <row r="84" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C84" s="8">
         <v>1</v>
@@ -3574,18 +4278,27 @@
       <c r="I84" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>1022</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C85" s="8">
         <v>0</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="9">
+        <v>566</v>
+      </c>
       <c r="E85" s="9">
         <v>566</v>
       </c>
@@ -3601,13 +4314,20 @@
       <c r="I85" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C86" s="8">
         <v>0</v>
@@ -3615,7 +4335,9 @@
       <c r="D86" s="9">
         <v>798</v>
       </c>
-      <c r="E86" s="9"/>
+      <c r="E86" s="9">
+        <v>1162</v>
+      </c>
       <c r="F86" s="9" t="s">
         <v>2</v>
       </c>
@@ -3628,18 +4350,27 @@
       <c r="I86" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>1162</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C87" s="8">
         <v>1</v>
       </c>
-      <c r="D87" s="9"/>
+      <c r="D87" s="9">
+        <v>27</v>
+      </c>
       <c r="E87" s="9">
         <v>27</v>
       </c>
@@ -3655,13 +4386,20 @@
       <c r="I87" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C88" s="8">
         <v>0</v>
@@ -3684,18 +4422,27 @@
       <c r="I88" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C89" s="8">
         <v>1</v>
       </c>
-      <c r="D89" s="9"/>
+      <c r="D89" s="9">
+        <v>636</v>
+      </c>
       <c r="E89" s="9">
         <v>636</v>
       </c>
@@ -3709,18 +4456,27 @@
         <v>43376</v>
       </c>
       <c r="I89" s="12"/>
-    </row>
-    <row r="90" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>636</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C90" s="8">
         <v>1</v>
       </c>
-      <c r="D90" s="9"/>
+      <c r="D90" s="9">
+        <v>6120</v>
+      </c>
       <c r="E90" s="9">
         <v>6120</v>
       </c>
@@ -3736,13 +4492,20 @@
       <c r="I90" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>40683</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C91" s="8">
         <v>0</v>
@@ -3765,13 +4528,20 @@
       <c r="I91" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>1475</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C92" s="8">
         <v>0</v>
@@ -3794,18 +4564,27 @@
       <c r="I92" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>39565</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C93" s="8">
         <v>0</v>
       </c>
-      <c r="D93" s="9"/>
+      <c r="D93" s="9">
+        <v>5</v>
+      </c>
       <c r="E93" s="9">
         <v>5</v>
       </c>
@@ -3821,13 +4600,20 @@
       <c r="I93" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C94" s="8">
         <v>0</v>
@@ -3850,18 +4636,27 @@
       <c r="I94" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>1121</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C95" s="8">
         <v>0</v>
       </c>
-      <c r="D95" s="9"/>
+      <c r="D95" s="9">
+        <v>28</v>
+      </c>
       <c r="E95" s="9">
         <v>28</v>
       </c>
@@ -3877,18 +4672,27 @@
       <c r="I95" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C96" s="8">
         <v>0</v>
       </c>
-      <c r="D96" s="9"/>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
       <c r="E96" s="9">
         <v>1</v>
       </c>
@@ -3904,18 +4708,27 @@
       <c r="I96" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C97" s="8">
         <v>0</v>
       </c>
-      <c r="D97" s="9"/>
+      <c r="D97" s="9">
+        <v>181</v>
+      </c>
       <c r="E97" s="9">
         <v>181</v>
       </c>
@@ -3931,18 +4744,27 @@
       <c r="I97" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C98" s="8">
         <v>0</v>
       </c>
-      <c r="D98" s="9"/>
+      <c r="D98" s="9">
+        <v>76</v>
+      </c>
       <c r="E98" s="9">
         <v>76</v>
       </c>
@@ -3958,8 +4780,15 @@
       <c r="I98" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>119</v>
       </c>
@@ -3985,8 +4814,15 @@
         <v>43172</v>
       </c>
       <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>1307</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>121</v>
       </c>
@@ -3996,7 +4832,9 @@
       <c r="C100" s="8">
         <v>0</v>
       </c>
-      <c r="D100" s="9"/>
+      <c r="D100" s="9">
+        <v>21</v>
+      </c>
       <c r="E100" s="9">
         <v>22</v>
       </c>
@@ -4010,18 +4848,27 @@
         <v>42572</v>
       </c>
       <c r="I100" s="12"/>
-    </row>
-    <row r="101" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C101" s="8">
         <v>0</v>
       </c>
-      <c r="D101" s="9"/>
+      <c r="D101" s="9">
+        <v>318</v>
+      </c>
       <c r="E101" s="9">
         <v>318</v>
       </c>
@@ -4035,13 +4882,20 @@
         <v>41764</v>
       </c>
       <c r="I101" s="12"/>
-    </row>
-    <row r="102" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C102" s="8">
         <v>0</v>
@@ -4062,8 +4916,15 @@
         <v>43333</v>
       </c>
       <c r="I102" s="12"/>
-    </row>
-    <row r="103" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>952</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>124</v>
       </c>
@@ -4073,7 +4934,9 @@
       <c r="C103" s="8">
         <v>0</v>
       </c>
-      <c r="D103" s="9"/>
+      <c r="D103" s="9">
+        <v>176</v>
+      </c>
       <c r="E103" s="9">
         <v>186</v>
       </c>
@@ -4089,13 +4952,20 @@
       <c r="I103" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C104" s="8">
         <v>0</v>
@@ -4103,7 +4973,9 @@
       <c r="D104" s="9">
         <v>1658</v>
       </c>
-      <c r="E104" s="9"/>
+      <c r="E104" s="9">
+        <v>1659</v>
+      </c>
       <c r="F104" s="9" t="s">
         <v>4</v>
       </c>
@@ -4116,13 +4988,20 @@
       <c r="I104" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>1659</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C105" s="8">
         <v>1</v>
@@ -4143,18 +5022,27 @@
         <v>42510</v>
       </c>
       <c r="I105" s="12"/>
-    </row>
-    <row r="106" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C106" s="8">
         <v>1</v>
       </c>
-      <c r="D106" s="9"/>
+      <c r="D106" s="9">
+        <v>539</v>
+      </c>
       <c r="E106" s="9">
         <v>539</v>
       </c>
@@ -4170,18 +5058,27 @@
       <c r="I106" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C107" s="8">
         <v>1</v>
       </c>
-      <c r="D107" s="9"/>
+      <c r="D107" s="9">
+        <v>368</v>
+      </c>
       <c r="E107" s="9">
         <v>368</v>
       </c>
@@ -4195,18 +5092,27 @@
         <v>42541</v>
       </c>
       <c r="I107" s="12"/>
-    </row>
-    <row r="108" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <f t="shared" si="1"/>
+        <v>369</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C108" s="8">
         <v>1</v>
       </c>
-      <c r="D108" s="9"/>
+      <c r="D108" s="9">
+        <v>177</v>
+      </c>
       <c r="E108" s="9">
         <v>177</v>
       </c>
@@ -4222,8 +5128,15 @@
       <c r="I108" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>131</v>
       </c>
@@ -4233,7 +5146,9 @@
       <c r="C109" s="8">
         <v>0</v>
       </c>
-      <c r="D109" s="9"/>
+      <c r="D109" s="9">
+        <v>34</v>
+      </c>
       <c r="E109" s="9">
         <v>34</v>
       </c>
@@ -4247,8 +5162,15 @@
         <v>42773</v>
       </c>
       <c r="I109" s="12"/>
-    </row>
-    <row r="110" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>133</v>
       </c>
@@ -4258,7 +5180,9 @@
       <c r="C110" s="8">
         <v>0</v>
       </c>
-      <c r="D110" s="9"/>
+      <c r="D110" s="9">
+        <v>2</v>
+      </c>
       <c r="E110" s="9">
         <v>2</v>
       </c>
@@ -4274,8 +5198,15 @@
       <c r="I110" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>134</v>
       </c>
@@ -4285,7 +5216,9 @@
       <c r="C111" s="8">
         <v>0</v>
       </c>
-      <c r="D111" s="9"/>
+      <c r="D111" s="9">
+        <v>438</v>
+      </c>
       <c r="E111" s="9">
         <v>438</v>
       </c>
@@ -4299,8 +5232,15 @@
         <v>42346</v>
       </c>
       <c r="I111" s="12"/>
-    </row>
-    <row r="112" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>135</v>
       </c>
@@ -4310,7 +5250,9 @@
       <c r="C112" s="8">
         <v>0</v>
       </c>
-      <c r="D112" s="9"/>
+      <c r="D112" s="9">
+        <v>243</v>
+      </c>
       <c r="E112" s="9">
         <v>243</v>
       </c>
@@ -4324,8 +5266,15 @@
         <v>41660</v>
       </c>
       <c r="I112" s="12"/>
-    </row>
-    <row r="113" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>136</v>
       </c>
@@ -4335,7 +5284,9 @@
       <c r="C113" s="8">
         <v>0</v>
       </c>
-      <c r="D113" s="9"/>
+      <c r="D113" s="9">
+        <v>190</v>
+      </c>
       <c r="E113" s="9">
         <v>190</v>
       </c>
@@ -4351,8 +5302,15 @@
       <c r="I113" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>137</v>
       </c>
@@ -4365,7 +5323,9 @@
       <c r="D114" s="9">
         <v>1168</v>
       </c>
-      <c r="E114" s="9"/>
+      <c r="E114" s="9">
+        <v>1552</v>
+      </c>
       <c r="F114" s="9" t="s">
         <v>4</v>
       </c>
@@ -4378,18 +5338,27 @@
       <c r="I114" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>1552</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C115" s="8">
         <v>0</v>
       </c>
-      <c r="D115" s="9"/>
+      <c r="D115" s="9">
+        <v>722</v>
+      </c>
       <c r="E115" s="9">
         <v>722</v>
       </c>
@@ -4405,8 +5374,15 @@
       <c r="I115" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>723</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>140</v>
       </c>
@@ -4416,7 +5392,9 @@
       <c r="C116" s="8">
         <v>0</v>
       </c>
-      <c r="D116" s="9"/>
+      <c r="D116" s="9">
+        <v>287</v>
+      </c>
       <c r="E116" s="9">
         <v>288</v>
       </c>
@@ -4432,8 +5410,15 @@
       <c r="I116" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J116">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>142</v>
       </c>
@@ -4443,7 +5428,9 @@
       <c r="C117" s="8">
         <v>0</v>
       </c>
-      <c r="D117" s="9"/>
+      <c r="D117" s="9">
+        <v>1156</v>
+      </c>
       <c r="E117" s="9">
         <v>1462</v>
       </c>
@@ -4459,8 +5446,15 @@
       <c r="I117" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <f t="shared" si="1"/>
+        <v>1156</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>143</v>
       </c>
@@ -4488,17 +5482,24 @@
       <c r="I118" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>40483</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="129" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="130" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="131" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
